--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/sobel/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/sobel/resultados.xlsx
@@ -50,19 +50,19 @@
     <t>Local Size</t>
   </si>
   <si>
+    <t>[(8, 8), (2, 64)]</t>
+  </si>
+  <si>
+    <t>[(2, 64), (1, 128)]</t>
+  </si>
+  <si>
+    <t>[(4, 32)]</t>
+  </si>
+  <si>
+    <t>[(8, 16)]</t>
+  </si>
+  <si>
     <t>[(2, 64)]</t>
-  </si>
-  <si>
-    <t>[(8, 16)]</t>
-  </si>
-  <si>
-    <t>[(2, 64), (1, 128)]</t>
-  </si>
-  <si>
-    <t>[(4, 32)]</t>
-  </si>
-  <si>
-    <t>[(1, 128)]</t>
   </si>
 </sst>
 </file>
@@ -527,37 +527,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>9.152E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>6.304E-06</v>
+        <v>6.336E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>6.400000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>6.272E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>5.312E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H4" s="1">
+        <v>8.192000000000001E-06</v>
+      </c>
+      <c r="I4" s="1">
         <v>6.144000000000001E-06</v>
       </c>
-      <c r="I4" s="1">
-        <v>6.336E-06</v>
-      </c>
       <c r="J4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.432E-06</v>
       </c>
       <c r="K4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.272E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>6.368000000000001E-06</v>
+        <v>6.496E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -565,43 +565,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2.1504E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>1.024E-05</v>
+        <v>1.0176E-05</v>
       </c>
       <c r="D5" s="1">
         <v>6.88E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>6.208000000000001E-06</v>
+        <v>6.944000000000001E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>8.16E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>6.496E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1264E-05</v>
+        <v>1.024E-05</v>
       </c>
       <c r="I5" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="J5" s="1">
-        <v>1.1232E-05</v>
+        <v>1.024E-05</v>
       </c>
       <c r="K5" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>6.432E-06</v>
       </c>
       <c r="L5" s="1">
-        <v>8.096E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="M5" s="1">
-        <v>6.208000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="N5" s="1">
-        <v>1.1936E-05</v>
+        <v>1.1264E-05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -609,16 +609,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.00028672</v>
+        <v>0.00028688</v>
       </c>
       <c r="C6" s="1">
-        <v>7.8848E-05</v>
+        <v>8.076800000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.7648E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>2.6528E-05</v>
+        <v>2.5888E-05</v>
       </c>
       <c r="F6" s="1">
         <v>4.7104E-05</v>
@@ -627,16 +627,16 @@
         <v>1.2288E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.552E-05</v>
+        <v>1.6128E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.908800000000001E-05</v>
+        <v>8.896E-05</v>
       </c>
       <c r="K6" s="1">
-        <v>2.5856E-05</v>
+        <v>2.56E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.8128E-05</v>
+        <v>4.7296E-05</v>
       </c>
       <c r="M6" s="1">
         <v>1.2288E-05</v>
@@ -647,22 +647,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000444672</v>
+        <v>0.00044672</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000119616</v>
+        <v>0.000118784</v>
       </c>
       <c r="D7" s="1">
-        <v>3.584E-05</v>
+        <v>3.4592E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.32E-05</v>
       </c>
       <c r="I7" s="1">
         <v>1.7408E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.2528E-05</v>
+        <v>2.1504E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -670,34 +670,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.00086096</v>
+        <v>0.00086304</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000236672</v>
+        <v>0.00023632</v>
       </c>
       <c r="D8" s="1">
-        <v>6.656E-05</v>
+        <v>6.758400000000001E-05</v>
       </c>
       <c r="E8" s="1">
         <v>4.096E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>7.136000000000001E-05</v>
+        <v>7.065600000000001E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000127296</v>
+        <v>0.000126976</v>
       </c>
       <c r="J8" s="1">
-        <v>0.00012288</v>
+        <v>0.000123712</v>
       </c>
       <c r="K8" s="1">
-        <v>3.8912E-05</v>
+        <v>3.904000000000001E-05</v>
       </c>
       <c r="L8" s="1">
-        <v>6.8768E-05</v>
+        <v>6.956800000000001E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.000139328</v>
+        <v>0.00013856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,28 +705,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001931264</v>
+        <v>0.001929216</v>
       </c>
       <c r="C9" s="1">
         <v>0.0005120000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000148832</v>
+        <v>0.000149536</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000136096</v>
+        <v>0.000134944</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0432E-05</v>
+        <v>5.0176E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>7.065600000000001E-05</v>
+        <v>7.136000000000001E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000135168</v>
+        <v>0.000134304</v>
       </c>
       <c r="M9" s="1">
-        <v>5.0272E-05</v>
+        <v>5.0176E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -734,34 +734,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.00780688</v>
+        <v>0.007808000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.002069216</v>
+        <v>0.002070528</v>
       </c>
       <c r="D10" s="1">
-        <v>0.000551776</v>
+        <v>0.00055104</v>
       </c>
       <c r="E10" s="1">
         <v>0.000277504</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0005326080000000001</v>
+        <v>0.0005335040000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001067008</v>
+        <v>0.001063936</v>
       </c>
       <c r="J10" s="1">
-        <v>0.001014784</v>
+        <v>0.001016992</v>
       </c>
       <c r="K10" s="1">
-        <v>0.000269312</v>
+        <v>0.000270336</v>
       </c>
       <c r="L10" s="1">
-        <v>0.000527232</v>
+        <v>0.0005263360000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>0.00115888</v>
+        <v>0.00115936</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,31 +769,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.04552089600000001</v>
+        <v>0.045522848</v>
       </c>
       <c r="C11" s="1">
-        <v>0.011671776</v>
+        <v>0.011708672</v>
       </c>
       <c r="D11" s="1">
-        <v>0.003072928</v>
+        <v>0.003064576</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001880064</v>
+        <v>0.001880416</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003779456</v>
+        <v>0.003792896</v>
       </c>
       <c r="G11" s="1">
-        <v>0.000996352</v>
+        <v>0.000998496</v>
       </c>
       <c r="I11" s="1">
         <v>0.001062912</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001833984</v>
+        <v>0.001842176</v>
       </c>
       <c r="L11" s="1">
-        <v>0.00379904</v>
+        <v>0.003800064</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5.312E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -845,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -862,7 +862,7 @@
         <v>1.2288E-05</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -876,7 +876,7 @@
         <v>1.7408E-05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -887,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3.8912E-05</v>
+        <v>3.904000000000001E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -901,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0272E-05</v>
+        <v>5.0176E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -915,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000269312</v>
+        <v>0.000270336</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -929,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000996352</v>
+        <v>0.000998496</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/sobel/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/sobel/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Image Name</t>
   </si>
@@ -50,19 +50,13 @@
     <t>Local Size</t>
   </si>
   <si>
-    <t>[(8, 8), (2, 64)]</t>
-  </si>
-  <si>
-    <t>[(2, 64), (1, 128)]</t>
-  </si>
-  <si>
     <t>[(4, 32)]</t>
   </si>
   <si>
+    <t>[(2, 64)]</t>
+  </si>
+  <si>
     <t>[(8, 16)]</t>
-  </si>
-  <si>
-    <t>[(2, 64)]</t>
   </si>
 </sst>
 </file>
@@ -530,34 +524,34 @@
         <v>9.152E-06</v>
       </c>
       <c r="C4" s="1">
+        <v>7.168000000000001E-06</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.400000000000001E-06</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.848E-06</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.208000000000001E-06</v>
+      </c>
+      <c r="G4" s="1">
         <v>6.336E-06</v>
       </c>
-      <c r="D4" s="1">
+      <c r="H4" s="1">
+        <v>6.432E-06</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.184000000000001E-06</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.096E-06</v>
+      </c>
+      <c r="K4" s="1">
         <v>7.168000000000001E-06</v>
       </c>
-      <c r="E4" s="1">
-        <v>5.12E-06</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.272E-06</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5.12E-06</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6.432E-06</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.272E-06</v>
-      </c>
       <c r="L4" s="1">
-        <v>6.496E-06</v>
+        <v>7.104E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -571,37 +565,37 @@
         <v>1.0176E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>6.88E-06</v>
+        <v>8.032E-06</v>
       </c>
       <c r="E5" s="1">
+        <v>7.072E-06</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.064000000000001E-06</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.168000000000001E-06</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.1264E-05</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.144000000000001E-06</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.12E-05</v>
+      </c>
+      <c r="K5" s="1">
         <v>6.944000000000001E-06</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.024E-05</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7.168000000000001E-06</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.024E-05</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.432E-06</v>
       </c>
       <c r="L5" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="M5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.464E-06</v>
       </c>
       <c r="N5" s="1">
-        <v>1.1264E-05</v>
+        <v>1.12E-05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -609,16 +603,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.00028688</v>
+        <v>0.000289792</v>
       </c>
       <c r="C6" s="1">
-        <v>8.076800000000001E-05</v>
+        <v>8.4256E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.6624E-05</v>
+        <v>2.7744E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>2.5888E-05</v>
+        <v>2.56E-05</v>
       </c>
       <c r="F6" s="1">
         <v>4.7104E-05</v>
@@ -627,19 +621,19 @@
         <v>1.2288E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.6128E-05</v>
+        <v>1.5392E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.896E-05</v>
+        <v>8.908800000000001E-05</v>
       </c>
       <c r="K6" s="1">
         <v>2.56E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.7296E-05</v>
+        <v>4.8128E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>1.2288E-05</v>
+        <v>1.2448E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -647,22 +641,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.00044672</v>
+        <v>0.000447168</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000118784</v>
+        <v>0.000125952</v>
       </c>
       <c r="D7" s="1">
-        <v>3.4592E-05</v>
+        <v>3.6864E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.32E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.7408E-05</v>
+        <v>1.7312E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.1536E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -670,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.00086304</v>
+        <v>0.001972224</v>
       </c>
       <c r="C8" s="1">
-        <v>0.00023632</v>
+        <v>0.00023744</v>
       </c>
       <c r="D8" s="1">
-        <v>6.758400000000001E-05</v>
+        <v>6.774400000000001E-05</v>
       </c>
       <c r="E8" s="1">
         <v>4.096E-05</v>
@@ -688,16 +682,16 @@
         <v>0.000126976</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000123712</v>
+        <v>0.000123872</v>
       </c>
       <c r="K8" s="1">
-        <v>3.904000000000001E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="L8" s="1">
-        <v>6.956800000000001E-05</v>
+        <v>6.972800000000001E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.00013856</v>
+        <v>0.000138048</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,28 +699,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001929216</v>
+        <v>0.001931968</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0005120000000000001</v>
+        <v>0.00051216</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000149536</v>
+        <v>0.000150528</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000134944</v>
+        <v>0.0001344</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0176E-05</v>
+        <v>5.12E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>7.136000000000001E-05</v>
+        <v>7.168E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000134304</v>
+        <v>0.000135424</v>
       </c>
       <c r="M9" s="1">
-        <v>5.0176E-05</v>
+        <v>5.2096E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -734,34 +728,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.007808000000000001</v>
+        <v>0.007809024</v>
       </c>
       <c r="C10" s="1">
-        <v>0.002070528</v>
+        <v>0.002069504</v>
       </c>
       <c r="D10" s="1">
-        <v>0.00055104</v>
+        <v>0.0005509120000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000277504</v>
+        <v>0.000279552</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0005335040000000001</v>
+        <v>0.0005332480000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001063936</v>
+        <v>0.001068896</v>
       </c>
       <c r="J10" s="1">
-        <v>0.001016992</v>
+        <v>0.001016576</v>
       </c>
       <c r="K10" s="1">
         <v>0.000270336</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0005263360000000001</v>
+        <v>0.00052704</v>
       </c>
       <c r="N10" s="1">
-        <v>0.00115936</v>
+        <v>0.001161248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,31 +763,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.045522848</v>
+        <v>0.047002624</v>
       </c>
       <c r="C11" s="1">
-        <v>0.011708672</v>
+        <v>0.011701248</v>
       </c>
       <c r="D11" s="1">
-        <v>0.003064576</v>
+        <v>0.003062816</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001880416</v>
+        <v>0.00188096</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003792896</v>
+        <v>0.003779584</v>
       </c>
       <c r="G11" s="1">
-        <v>0.000998496</v>
+        <v>0.0009984</v>
       </c>
       <c r="I11" s="1">
-        <v>0.001062912</v>
+        <v>0.001064</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001842176</v>
+        <v>0.001835872</v>
       </c>
       <c r="L11" s="1">
-        <v>0.003800064</v>
+        <v>0.0038</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -848,7 +842,7 @@
         <v>6.144000000000001E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -873,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.7408E-05</v>
+        <v>1.7312E-05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -887,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3.904000000000001E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -901,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0176E-05</v>
+        <v>5.12E-05</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -918,7 +912,7 @@
         <v>0.000270336</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -929,10 +923,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000998496</v>
+        <v>0.0009984</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
